--- a/DATA608/Story1/IIJA FUNDING AS OF MARCH 2023.xlsx
+++ b/DATA608/Story1/IIJA FUNDING AS OF MARCH 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgral\Google Drive\EDU\CUNY SPS\Data 608\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DATA608\Story1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC05A66-F486-4C56-A47B-905348F42D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25C3D4-E27F-4322-9795-468C7FD7ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26805" yWindow="2295" windowWidth="27000" windowHeight="19635" xr2:uid="{0BDE95B1-4385-4AFA-974F-F26807504D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BDE95B1-4385-4AFA-974F-F26807504D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>CONNECTICUT</t>
   </si>
   <si>
-    <t>DELEWARE</t>
-  </si>
-  <si>
     <t>DISTRICT OF COLUMBIA</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>WYOMING</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -265,10 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB2D0BF-AB98-4C44-9E5D-9B435F1E12FF}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3">
         <v>0.79200000000000004</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1.1000000000000001</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>8.1999999999999993</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>0.1426</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1.2</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>8.4</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>3.4</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>2.4</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>1.5</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>3.9</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>4.3</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>1.1000000000000001</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>2.7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>3.6</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>5.2</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>2.7</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>2.2999999999999998</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>3.8</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>3.3</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>1.3</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>1.7</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>0.75180000000000002</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>5.0999999999999996</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>2.6</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>10.1</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>4.5</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>1.8</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>8.3299999999999999E-2</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
         <v>6.6</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3">
         <v>2.9</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
         <v>2.2999999999999998</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
         <v>8.1</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3">
         <v>0.99370000000000003</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3">
         <v>1.1000000000000001</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3">
         <v>2.2999999999999998</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3">
         <v>1.3</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3">
         <v>3.7</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3">
         <v>14.2</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3">
         <v>0.14829999999999999</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
         <v>1.8</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3">
         <v>0.85209999999999997</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3">
         <v>4.5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3">
         <v>4</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
         <v>2.8</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>2.2999999999999998</v>
